--- a/5_checking_accuracy/ground_true.xlsx
+++ b/5_checking_accuracy/ground_true.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthiasyz/Desktop/Fall 2025/NLP/final/F25_NLP_Cross-Domain-Job-Matching/5_checking_accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3E157-1CB2-3848-A408-261A225AA5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B95937F-35C9-F840-A5F7-D1791080A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="34200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,258 +20,411 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="135">
   <si>
     <t>resume_id</t>
   </si>
   <si>
+    <t>top1_match_job_id</t>
+  </si>
+  <si>
+    <t>top1_match_job_title</t>
+  </si>
+  <si>
+    <t>top1_match_job_location</t>
+  </si>
+  <si>
+    <t>top2_match_job_id</t>
+  </si>
+  <si>
+    <t>top2_match_job_title</t>
+  </si>
+  <si>
+    <t>top2_match_job_location</t>
+  </si>
+  <si>
+    <t>top3_match_job_id</t>
+  </si>
+  <si>
+    <t>top3_match_job_title</t>
+  </si>
+  <si>
+    <t>top3_match_job_location</t>
+  </si>
+  <si>
+    <t>Content Developer - Simulink Tools and Code Generation</t>
+  </si>
+  <si>
+    <t>Natick, MA</t>
+  </si>
+  <si>
+    <t>Validation Specialist - Cleaning - CIP</t>
+  </si>
+  <si>
+    <t>Rensselaer , NY</t>
+  </si>
+  <si>
+    <t>Systems Engineer</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>SharePoint Developer\Administrator (Government)</t>
+  </si>
+  <si>
+    <t>Columbia, MD</t>
+  </si>
+  <si>
+    <t>Government Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer (Government)</t>
+  </si>
+  <si>
     <t>Project Manager</t>
   </si>
   <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Entry .Net</t>
+  </si>
+  <si>
+    <t>Columbus, OH</t>
+  </si>
+  <si>
+    <t>General Laborer</t>
+  </si>
+  <si>
+    <t>Fairfield, OH</t>
+  </si>
+  <si>
+    <t>IT Business Analyst</t>
+  </si>
+  <si>
+    <t>Product Analyst</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Principal System Engineer (Big Data)</t>
+  </si>
+  <si>
+    <t>Plano, TX</t>
+  </si>
+  <si>
+    <t>Staff Accountant</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Lead Accountant</t>
+  </si>
+  <si>
     <t>Cincinnati, OH</t>
   </si>
   <si>
+    <t>Lead Financial Analyst</t>
+  </si>
+  <si>
+    <t>Ruby Developer</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer in Test</t>
+  </si>
+  <si>
+    <t>.Net Developer</t>
+  </si>
+  <si>
+    <t>IT Audit Senior Associate</t>
+  </si>
+  <si>
+    <t>Business Intelligence Developer</t>
+  </si>
+  <si>
+    <t>De Pere, WI</t>
+  </si>
+  <si>
+    <t>Senior Real Estate Accountant</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Customer Service Representative</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Durham, NC</t>
+  </si>
+  <si>
+    <t>Content Developer for MATLAB Code Generation</t>
+  </si>
+  <si>
+    <t>JavaScript Web Developer (Mid to Senior)</t>
+  </si>
+  <si>
+    <t>Sr. Project Engineer</t>
+  </si>
+  <si>
+    <t>State College, PA</t>
+  </si>
+  <si>
+    <t>Tulsa, OK</t>
+  </si>
+  <si>
+    <t>Application Developer</t>
+  </si>
+  <si>
+    <t>Pocatello, ID</t>
+  </si>
+  <si>
+    <t>IT Engineer II</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Security Engineer (Government)</t>
+  </si>
+  <si>
+    <t>Oracle PL/SQL Developer</t>
+  </si>
+  <si>
+    <t>Driver Recruiter</t>
+  </si>
+  <si>
+    <t>Richmond, VA</t>
+  </si>
+  <si>
+    <t>IDAM System Engineer</t>
+  </si>
+  <si>
+    <t>Mclean, VA</t>
+  </si>
+  <si>
+    <t>UI Producer/Designer</t>
+  </si>
+  <si>
+    <t>Software Engineer in Test - MATLAB App Building Tool</t>
+  </si>
+  <si>
+    <t>Principal Member of Technical Staff Data Scientist</t>
+  </si>
+  <si>
+    <t>Business Marketing Principal Technical Architect Dallas TX or Middletown NJ</t>
+  </si>
+  <si>
     <t>Sr. Software Systems Engineer</t>
   </si>
   <si>
-    <t>Dallas, TX</t>
-  </si>
-  <si>
-    <t>San Francisco, CA</t>
+    <t>C++ Software Engineer in Test</t>
+  </si>
+  <si>
+    <t>Software Engineer and Analyst</t>
+  </si>
+  <si>
+    <t>Santa Barbara, CA</t>
+  </si>
+  <si>
+    <t>SAS Analyst</t>
+  </si>
+  <si>
+    <t>Data Architect</t>
+  </si>
+  <si>
+    <t>Cary, NC</t>
+  </si>
+  <si>
+    <t>SQL Server Administrator</t>
+  </si>
+  <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
+    <t>Memphis, TN</t>
+  </si>
+  <si>
+    <t>AVP Finance</t>
+  </si>
+  <si>
+    <t>Kettering, OH</t>
+  </si>
+  <si>
+    <t>e Learning Developer in Cincinnati</t>
+  </si>
+  <si>
+    <t>Service Delivery Manager – Application Production Support</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>Automation Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Peoplesoft Systems Developer</t>
+  </si>
+  <si>
+    <t>Folsom, CA</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Columbia, SC</t>
+  </si>
+  <si>
+    <t>Info Security Advisor</t>
+  </si>
+  <si>
+    <t>Application Analyst - Uniondale LI</t>
+  </si>
+  <si>
+    <t>Uniondale, NY</t>
+  </si>
+  <si>
+    <t>SQL Server Admin.</t>
+  </si>
+  <si>
+    <t>Grapevine, TX</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Designer II</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale, FL</t>
+  </si>
+  <si>
+    <t>Staff Accountant - up to $k</t>
+  </si>
+  <si>
+    <t>Lead Database Administrator</t>
+  </si>
+  <si>
+    <t>Equipment and Systems Engineer - Cincinnati</t>
+  </si>
+  <si>
+    <t>Manufacturing/Production Engineer</t>
+  </si>
+  <si>
+    <t>Rochester, NY</t>
+  </si>
+  <si>
+    <t>Content Developer for MATLAB/HDL Code Generation</t>
+  </si>
+  <si>
+    <t>DSP/Communications Engineering Summer Intern</t>
+  </si>
+  <si>
+    <t>Land Assistant</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Development Associate</t>
+  </si>
+  <si>
+    <t>Customer Support Specialist!</t>
+  </si>
+  <si>
+    <t>Sofware Quality Assurance Engineer II</t>
+  </si>
+  <si>
+    <t>Sunnyvale, CA</t>
+  </si>
+  <si>
+    <t>Marketing Analyst</t>
+  </si>
+  <si>
+    <t>Northbrook, IL</t>
+  </si>
+  <si>
+    <t>Software Engineer in Test - MATLAB Hardware</t>
+  </si>
+  <si>
+    <t>Capacity and Demand Analyst - Servers</t>
+  </si>
+  <si>
+    <t>Sr. Systems Developer (Government)</t>
+  </si>
+  <si>
+    <t>Newport News, VA</t>
+  </si>
+  <si>
+    <t>Project Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lauderdale, FL</t>
+  </si>
+  <si>
+    <t>Sr Specialist Tech Development Program Technology Operations</t>
+  </si>
+  <si>
+    <t>International Tax &amp; Compensation Coordinator</t>
+  </si>
+  <si>
+    <t>Downers Grove, IL</t>
+  </si>
+  <si>
+    <t>Document Capture Developer</t>
+  </si>
+  <si>
+    <t>IT - Systems Analysis Consultant - Senior</t>
+  </si>
+  <si>
+    <t>Eden Prairie, MN</t>
+  </si>
+  <si>
+    <t>Sr. iOS Engineer</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Lead Application Developer in Cincinnati</t>
+  </si>
+  <si>
+    <t>SQL Developer</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
   </si>
   <si>
     <t>Marketing Analytics Manager</t>
   </si>
   <si>
-    <t>Lead Accountant</t>
-  </si>
-  <si>
-    <t>Ruby Developer</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>.Net Developer</t>
-  </si>
-  <si>
-    <t>Business Intelligence Developer</t>
-  </si>
-  <si>
-    <t>De Pere, WI</t>
-  </si>
-  <si>
-    <t>Lead Financial Analyst</t>
-  </si>
-  <si>
-    <t>Content Developer for MATLAB Code Generation</t>
-  </si>
-  <si>
-    <t>Natick, MA</t>
-  </si>
-  <si>
-    <t>Sr. Project Engineer</t>
-  </si>
-  <si>
-    <t>State College, PA</t>
-  </si>
-  <si>
-    <t>Entry .Net</t>
-  </si>
-  <si>
-    <t>Columbus, OH</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Tulsa, OK</t>
-  </si>
-  <si>
-    <t>Software Engineer in Test</t>
-  </si>
-  <si>
-    <t>Business Marketing Principal Technical Architect Dallas TX or Middletown NJ</t>
-  </si>
-  <si>
-    <t>Software Engineer and Analyst</t>
-  </si>
-  <si>
-    <t>Santa Barbara, CA</t>
-  </si>
-  <si>
-    <t>Customer Service Representative</t>
-  </si>
-  <si>
-    <t>Staff Accountant</t>
-  </si>
-  <si>
-    <t>Fort Lauderdale, FL</t>
-  </si>
-  <si>
-    <t>Validation Specialist - Cleaning - CIP</t>
-  </si>
-  <si>
-    <t>Rensselaer , NY</t>
-  </si>
-  <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>Columbia, SC</t>
-  </si>
-  <si>
-    <t>Application Analyst - Uniondale LI</t>
-  </si>
-  <si>
-    <t>Uniondale, NY</t>
-  </si>
-  <si>
-    <t>Principal Member of Technical Staff Data Scientist</t>
-  </si>
-  <si>
-    <t>Resident Nurse</t>
-  </si>
-  <si>
-    <t>Columbia, MD</t>
-  </si>
-  <si>
-    <t>Systems Engineer</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Business Systems Analyst</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Durham, NC</t>
-  </si>
-  <si>
-    <t>SQL Developer</t>
+    <t>Sr. Security Engineer</t>
   </si>
   <si>
     <t>EIS Appl Svcs Capital Mkts Solutions Architect</t>
   </si>
   <si>
-    <t>Principal System Engineer (Big Data)</t>
-  </si>
-  <si>
-    <t>Plano, TX</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Cleveland, OH</t>
-  </si>
-  <si>
-    <t>UI Producer/Designer</t>
-  </si>
-  <si>
-    <t>San Antonio, TX</t>
-  </si>
-  <si>
-    <t>Mechanical Designer II</t>
-  </si>
-  <si>
-    <t>Madison, WI</t>
-  </si>
-  <si>
-    <t>Data Architect</t>
-  </si>
-  <si>
-    <t>Cary, NC</t>
-  </si>
-  <si>
-    <t>Advertising Sales Senior Account Executive</t>
-  </si>
-  <si>
-    <t>El Segundo, CA</t>
-  </si>
-  <si>
-    <t>Software Engineer in Test - MATLAB Hardware</t>
-  </si>
-  <si>
-    <t>Cognos Developer</t>
-  </si>
-  <si>
-    <t>Newport News, VA</t>
-  </si>
-  <si>
-    <t>Account Manager - Hiring Bonus!</t>
-  </si>
-  <si>
-    <t>Middleton, WI</t>
-  </si>
-  <si>
-    <t>Content Developer - Simulink Tools and Code Generation</t>
-  </si>
-  <si>
-    <t>Application Developer</t>
-  </si>
-  <si>
-    <t>Master Scheduler</t>
-  </si>
-  <si>
-    <t>Bourne, MA</t>
-  </si>
-  <si>
-    <t>Honolulu, HI</t>
-  </si>
-  <si>
-    <t>Lead Database Administrator</t>
-  </si>
-  <si>
-    <t>Telecom Administrator</t>
-  </si>
-  <si>
-    <t>Sofware Quality Assurance Engineer II</t>
-  </si>
-  <si>
-    <t>Sunnyvale, CA</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>SQL Developer Analyst</t>
-  </si>
-  <si>
-    <t>Las Vegas, NV</t>
-  </si>
-  <si>
-    <t>SAS Analyst</t>
-  </si>
-  <si>
-    <t>Reference Solutions Architect</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>IT Audit Senior Associate</t>
-  </si>
-  <si>
-    <t>IT - Systems Analysis Consultant - Senior</t>
-  </si>
-  <si>
-    <t>Eden Prairie, MN</t>
-  </si>
-  <si>
-    <t>match_job_title</t>
-  </si>
-  <si>
-    <t>match_job_id</t>
-  </si>
-  <si>
-    <t>match_job_location</t>
-  </si>
-  <si>
-    <t>match_score</t>
+    <t>Admissions Director</t>
+  </si>
+  <si>
+    <t>Accounting Associate</t>
   </si>
 </sst>
 </file>
@@ -334,12 +487,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,69 +796,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1224</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>885</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>391</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -712,50 +908,95 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>865</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1011</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>944</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
         <v>1209</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>172</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -763,67 +1004,127 @@
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>811</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>960</v>
+        <v>811</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>240</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>617</v>
+        <v>1041</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>1175</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>964</v>
+        <v>1016</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -831,225 +1132,420 @@
         <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>231</v>
+        <v>1003</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>1159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1159</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>1041</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>304</v>
+        <v>960</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>895</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>960</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>240</v>
+        <v>633</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1068</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>244</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>811</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1177</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>459</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1013</v>
+        <v>801</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>1033</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>1013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>796</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1016</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>811</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>992</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>0.65255147218704224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22">
+        <v>303</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>811</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>885</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>391</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>913</v>
+        <v>1018</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1058,452 +1554,857 @@
         <v>32</v>
       </c>
       <c r="E24">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24">
+        <v>238</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>960</v>
+        <v>895</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>1177</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>325</v>
+        <v>687</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>643</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1209</v>
+        <v>885</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27">
+        <v>1041</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1033</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>0.96285714285714286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>374</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>240</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2">
+        <v>50</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>885</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>240</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <v>325</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>964</v>
+        <v>1016</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>885</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>890</v>
+        <v>937</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>213</v>
+        <v>1013</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>412</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35">
+        <v>964</v>
+      </c>
+      <c r="I35" t="s">
         <v>42</v>
       </c>
-      <c r="E35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>412</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="D36" t="s">
+      <c r="J36" t="s">
         <v>21</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37">
         <v>617</v>
       </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37">
+        <v>829</v>
+      </c>
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>885</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>1016</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <v>885</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>133</v>
+        <v>811</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>944</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>1016</v>
+      </c>
+      <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>213</v>
+        <v>964</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
+        <v>811</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
         <v>388</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>228</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>811</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>885</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
+        <v>1224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>571</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45">
         <v>1177</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>325</v>
+      </c>
+      <c r="I46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>0.62608224153518677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <v>696</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
         <v>412</v>
       </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48">
+        <v>811</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>960</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E49">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1511,84 +2412,159 @@
         <v>811</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>228</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>213</v>
+        <v>1016</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>228</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
+        <v>740</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53">
+        <v>811</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
+        <v>391</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
         <v>68</v>
       </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>811</v>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>968</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55">
+        <v>885</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1596,67 +2572,127 @@
         <v>738</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1016</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56">
+        <v>801</v>
+      </c>
+      <c r="I56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>994</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>992</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
+        <v>1013</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58">
         <v>474</v>
       </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58">
+        <v>964</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>811</v>
+        <v>738</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59">
+        <v>1068</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1664,220 +2700,415 @@
         <v>1041</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>0.57856595516204834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1209</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>427</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E61">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61">
+        <v>1209</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E62">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>796</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>801</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63">
+        <v>964</v>
+      </c>
+      <c r="F63" t="s">
         <v>42</v>
       </c>
-      <c r="E63">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63">
+        <v>391</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
+        <v>960</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>1016</v>
+      </c>
+      <c r="I64" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>240</v>
+        <v>811</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65">
+        <v>1068</v>
+      </c>
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>391</v>
+        <v>995</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E66">
-        <v>0.54029422998428345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1013</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66">
+        <v>1016</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>811</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67">
+        <v>85</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <v>944</v>
+      </c>
+      <c r="I68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1013</v>
+        <v>811</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E70">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70">
+        <v>228</v>
+      </c>
+      <c r="I70" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="F71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71">
+        <v>85</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>712</v>
+        <v>1205</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E72">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1885,220 +3116,415 @@
         <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73">
+        <v>811</v>
+      </c>
+      <c r="I73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>470</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>65</v>
+      </c>
+      <c r="I74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>213</v>
+        <v>696</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>388</v>
+      </c>
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>895</v>
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>391</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>671</v>
+        <v>391</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77">
+        <v>960</v>
+      </c>
+      <c r="I77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1034</v>
+        <v>1209</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="F78" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78">
+        <v>913</v>
+      </c>
+      <c r="I78" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="E79">
-        <v>0.60661077499389648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79">
+        <v>85</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>0.45585787296295172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F80" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H80">
+        <v>960</v>
+      </c>
+      <c r="I80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>304</v>
+        <v>1016</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>391</v>
+      </c>
+      <c r="F81" t="s">
         <v>19</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>801</v>
+      </c>
+      <c r="I81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
+        <v>811</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
         <v>391</v>
       </c>
-      <c r="C82" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82">
-        <v>0.64289402961730957</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82">
+        <v>69</v>
+      </c>
+      <c r="I82" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>740</v>
+        <v>633</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>0.62479013204574585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83">
+        <v>811</v>
+      </c>
+      <c r="I83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>325</v>
+        <v>664</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
         <v>34</v>
       </c>
-      <c r="E84">
-        <v>0.54179960489273071</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="2">
+        <v>325</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84">
+        <v>211</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+      <c r="J84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
+        <v>214</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" s="2">
         <v>213</v>
       </c>
-      <c r="C85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85">
-        <v>0.62921535968780518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85">
+        <v>1013</v>
+      </c>
+      <c r="I85" t="s">
+        <v>67</v>
+      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2106,50 +3532,95 @@
         <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86">
-        <v>0.60121119022369385</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E86" s="3">
+        <v>885</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E87">
-        <v>0.624839186668396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87">
+        <v>1016</v>
+      </c>
+      <c r="I87" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
+        <v>1068</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" s="2">
         <v>13</v>
       </c>
-      <c r="C88" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88">
-        <v>0.56857538223266602</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88">
+        <v>571</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2157,217 +3628,412 @@
         <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>0.60121119022369385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>1041</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E90">
-        <v>0.53529804944992065</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90">
+        <v>388</v>
+      </c>
+      <c r="I90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E91">
-        <v>0.59985661506652832</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91">
+        <v>85</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="E92">
-        <v>0.56909620761871338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>325</v>
+      </c>
+      <c r="I92" t="s">
+        <v>89</v>
+      </c>
+      <c r="J92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93">
+        <v>68</v>
+      </c>
+      <c r="F93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" t="s">
         <v>74</v>
       </c>
-      <c r="D93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93">
-        <v>0.61768746376037598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>964</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1159</v>
+        <v>1026</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E94">
-        <v>0.57880902290344238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94">
+        <v>1016</v>
+      </c>
+      <c r="I94" t="s">
+        <v>46</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>304</v>
+        <v>801</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95">
-        <v>0.67829585075378418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2">
+        <v>240</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95">
+        <v>213</v>
+      </c>
+      <c r="I95" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>240</v>
+        <v>885</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>0.50677531957626343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96">
+        <v>374</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>50</v>
+        <v>944</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E97">
-        <v>0.52854466438293457</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" t="s">
+        <v>124</v>
+      </c>
+      <c r="H97">
+        <v>211</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+      <c r="J97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>0.60087299346923828</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98">
+        <v>964</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>0.59785550832748413</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99">
+        <v>977</v>
+      </c>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+      <c r="J99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1018</v>
+        <v>913</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="E100">
-        <v>0.62449467182159424</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1041</v>
+      </c>
+      <c r="F100" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100">
+        <v>585</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+      <c r="J100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>0.56807112693786621</v>
+        <v>228</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101">
+        <v>131</v>
+      </c>
+      <c r="I101" t="s">
+        <v>36</v>
+      </c>
+      <c r="J101" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
